--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\BTS\_Epreuve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDCFCA-DF54-4C0F-BE7C-F4C37CE30253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2D553-51B7-46CA-B488-CFFA0381ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -143,9 +143,6 @@
     </r>
   </si>
   <si>
-    <t>Assistance de proximité auprès d’utilisateurs de niveau 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gestion de parc informatique </t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Déploiement serveur mutualisé (développement)</t>
   </si>
   <si>
-    <t>Installation de matériel sur site</t>
-  </si>
-  <si>
     <t>TP Startup (Mise a dispo serv info)</t>
   </si>
   <si>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>Tentative de création d'une interface permettant l'affichage de la configuration d'un switch, la sauvegarder et la télécharger.</t>
+  </si>
+  <si>
+    <t>Assistance de proximité auprès d’utilisateurs de niveau 1 / Installation de matériel sur site</t>
   </si>
 </sst>
 </file>
@@ -986,19 +983,6 @@
     <xf numFmtId="17" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1003,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1029,6 +1015,17 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1316,10 +1313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1004"/>
+  <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="42" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1331,56 +1328,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="54"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>28</v>
+      <c r="A4" s="58" t="s">
+        <v>27</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="31" t="s">
         <v>4</v>
       </c>
@@ -1392,22 +1389,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1430,8 +1427,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1452,20 +1449,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="46">
         <v>44896</v>
@@ -1479,7 +1476,7 @@
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="46">
         <v>45170</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="46">
         <v>45047</v>
@@ -1507,7 +1504,7 @@
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="46">
         <v>44896</v>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="46">
         <v>44835</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="46">
         <v>44835</v>
@@ -1549,7 +1546,7 @@
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="46">
         <v>44866</v>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="46">
         <v>45261</v>
@@ -1577,7 +1574,7 @@
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="46">
         <v>45231</v>
@@ -1591,7 +1588,7 @@
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="46">
         <v>45200</v>
@@ -1605,7 +1602,7 @@
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="46">
         <v>45231</v>
@@ -1619,7 +1616,7 @@
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="46">
         <v>45261</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="46">
         <v>45261</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="22" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="46">
         <v>45292</v>
@@ -1670,20 +1667,20 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="46">
         <v>45047</v>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="47">
         <v>45047</v>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="46">
         <v>45047</v>
@@ -1723,9 +1720,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28" s="46">
         <v>45047</v>
@@ -1738,40 +1735,36 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="46">
-        <v>45047</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A29" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="44"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1775,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="37"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -1814,35 +1807,35 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+    <row r="36" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1852,7 +1845,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="17"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -11485,31 +11478,21 @@
       <c r="H1002" s="1"/>
     </row>
     <row r="1003" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1004" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2D553-51B7-46CA-B488-CFFA0381ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BAC30A-BB8A-4D3D-9A53-2BC26B0EB931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -315,6 +315,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -354,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -644,21 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF494429"/>
       </left>
@@ -755,45 +746,6 @@
       <right style="thin">
         <color rgb="FF494429"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF494429"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF494429"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF494429"/>
-      </right>
       <top style="thin">
         <color rgb="FF494429"/>
       </top>
@@ -826,15 +778,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -842,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,9 +829,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -932,28 +877,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,13 +898,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +913,19 @@
     <xf numFmtId="17" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,28 +946,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,8 +1249,8 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="42" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1328,83 +1262,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="64" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="65"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="48"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1427,8 +1361,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1449,332 +1383,344 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="40">
         <v>44896</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="40">
         <v>45170</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="40">
         <v>45047</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="40">
         <v>44896</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="40">
         <v>44835</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="40">
         <v>44835</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="40">
         <v>44866</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="40">
         <v>45261</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="40">
         <v>45231</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="40">
         <v>45200</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="40">
         <v>45231</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="40">
         <v>45261</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="40">
         <v>45261</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="40">
         <v>45292</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="20"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="40">
         <v>45047</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="41">
         <v>45047</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="29"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="40">
         <v>45047</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="40">
         <v>45047</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="44"/>
+    <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="40">
+        <v>45292</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="40">
+        <v>45292</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="30"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="40">
+        <v>45292</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,17 +1761,16 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="14"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1835,7 +1780,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -11482,17 +11427,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BAC30A-BB8A-4D3D-9A53-2BC26B0EB931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCD7A5-37FD-4778-9C13-66B8D1418263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Réaliser une base de donnée relier à une application (développement, base de données)</t>
   </si>
   <si>
-    <t>Inscription d'ordinateurs Windows dans le service cloud de déploiement Microsoft Intune/ Masterisation en mode pré-provisionnement via Windows Autopilot.</t>
-  </si>
-  <si>
     <t>Veille (développement)</t>
   </si>
   <si>
@@ -199,12 +196,18 @@
   <si>
     <t>Assistance de proximité auprès d’utilisateurs de niveau 1 / Installation de matériel sur site</t>
   </si>
+  <si>
+    <t>Gestion de parc informatique / Tickets</t>
+  </si>
+  <si>
+    <t>Préparation d'ordinateurs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -321,6 +324,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -360,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -424,43 +441,6 @@
         <color rgb="FF494429"/>
       </right>
       <top style="medium">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF494429"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
         <color rgb="FF494429"/>
       </top>
       <bottom style="thin">
@@ -785,27 +765,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF494429"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF494429"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF494429"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF494429"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF494429"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF494429"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF494429"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -813,22 +920,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -840,79 +932,88 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,44 +1021,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,8 +1405,8 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1262,83 +1418,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="43"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="30" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1361,8 +1517,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1382,23 +1538,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="48"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="35">
         <v>44896</v>
       </c>
       <c r="C9" s="8"/>
@@ -1410,107 +1566,107 @@
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
-      <c r="B10" s="40">
-        <v>45170</v>
+      <c r="B10" s="35">
+        <v>45047</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="B11" s="40">
-        <v>45047</v>
+      <c r="B11" s="35">
+        <v>44896</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="B12" s="40">
-        <v>44896</v>
+      <c r="B12" s="35">
+        <v>44835</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="35">
         <v>44835</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="20"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
-      <c r="B14" s="40">
-        <v>44835</v>
+      <c r="B14" s="35">
+        <v>44866</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="20"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
-      <c r="B15" s="40">
-        <v>44866</v>
+      <c r="B15" s="35">
+        <v>45261</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="20"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
-      <c r="B16" s="40">
-        <v>45261</v>
+      <c r="B16" s="35">
+        <v>45170</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="20"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="35">
         <v>45231</v>
       </c>
       <c r="C17" s="20"/>
@@ -1524,21 +1680,21 @@
       <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="35">
         <v>45200</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="39"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="35">
         <v>45231</v>
       </c>
       <c r="C19" s="18"/>
@@ -1552,7 +1708,7 @@
       <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="35">
         <v>45261</v>
       </c>
       <c r="C20" s="9"/>
@@ -1560,166 +1716,166 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="35">
         <v>45261</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="20"/>
       <c r="G21" s="9"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="58">
+        <v>45292</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+    </row>
+    <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="65">
+        <v>45047</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="40">
-        <v>45292</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="40">
+      <c r="B26" s="36">
         <v>45047</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="41">
-        <v>45047</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="35">
         <v>45047</v>
       </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="36"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="58">
+        <v>45047</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="65">
+        <v>45292</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="40">
-        <v>45047</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="40">
-        <v>45292</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="40">
+      <c r="B31" s="35">
         <v>45292</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="29"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="35">
         <v>45292</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="18"/>
       <c r="H32" s="10"/>
     </row>
@@ -1761,7 +1917,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="64"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
@@ -1770,7 +1926,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="H37" s="63"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -11427,17 +11583,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FCD7A5-37FD-4778-9C13-66B8D1418263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DF633-87CC-4E72-A2C8-1F6995E828F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,40 +994,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1071,25 +1037,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,19 +1058,59 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1418,56 +1415,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="68"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
@@ -1479,22 +1476,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1517,8 +1514,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1539,16 +1536,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -1733,54 +1730,54 @@
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="40">
         <v>45292</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="81"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="78"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="73"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="47">
         <v>45047</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
@@ -1811,44 +1808,44 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="40">
         <v>45047</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="86" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
-      <c r="H29" s="71"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="47">
         <v>45292</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="56"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
@@ -1858,7 +1855,7 @@
         <v>45292</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="20"/>
@@ -11583,17 +11580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DF633-87CC-4E72-A2C8-1F6995E828F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AB86D-3A85-4050-9835-31B0A97F4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,12 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -377,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -603,36 +597,6 @@
       <left style="medium">
         <color rgb="FF494429"/>
       </left>
-      <right style="thin">
-        <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF494429"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF494429"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF494429"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF494429"/>
@@ -757,15 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF494429"/>
       </left>
@@ -877,12 +832,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494429"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -899,12 +927,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,15 +934,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -957,16 +970,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -978,7 +991,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,8 +1003,25 @@
     <xf numFmtId="17" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1000,41 +1030,20 @@
     <xf numFmtId="17" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1049,18 +1058,57 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,43 +1122,38 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,10 +1443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1003"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1415,83 +1458,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="78"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1514,8 +1557,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1536,394 +1579,398 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="30">
         <v>44896</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <v>45047</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="30">
         <v>44896</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="30">
         <v>44835</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="30">
         <v>44835</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <v>44866</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="30">
         <v>45261</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="30">
         <v>45170</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="30">
         <v>45231</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="30">
         <v>45200</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="34"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="30">
         <v>45231</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="30">
         <v>45261</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="24"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="30">
         <v>45261</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="19"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="33">
         <v>45292</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="60"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="57"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="40">
         <v>45047</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="85"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="31">
         <v>45047</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="30">
         <v>45047</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="32"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="33">
         <v>45047</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="61" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="53"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="40">
         <v>45292</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="85"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="30">
         <v>45292</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="31">
         <v>45292</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="85">
+        <v>45292</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="H34" s="79"/>
     </row>
     <row r="35" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="38"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="H37" s="37"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1933,7 +1980,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -11546,51 +11593,21 @@
       <c r="H999" s="1"/>
     </row>
     <row r="1000" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1003" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AB86D-3A85-4050-9835-31B0A97F4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07926C2E-9EBF-4D75-8E33-48D1B664DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -834,53 +834,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF494429"/>
       </left>
       <right style="thin">
         <color rgb="FF494429"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF494429"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -905,12 +862,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494429"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1073,6 +1045,25 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,51 +1100,22 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1407,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1458,56 +1420,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="72" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="64"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1519,22 +1481,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="70" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1557,8 +1519,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1579,16 +1541,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -1797,16 +1759,16 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -1891,48 +1853,35 @@
       <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="31">
         <v>45292</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="27"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="82">
         <v>45292</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-    </row>
-    <row r="33" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="85">
-        <v>45292</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="90"/>
-    </row>
+      <c r="C32" s="57"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
@@ -1940,7 +1889,6 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="H34" s="79"/>
     </row>
     <row r="35" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -11597,17 +11545,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07926C2E-9EBF-4D75-8E33-48D1B664DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5740A-4773-4F93-8F3D-DF290FEB8952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Portfolio (développement)</t>
   </si>
   <si>
-    <t>Page web pour l'entrepise de ligues (développement)</t>
-  </si>
-  <si>
     <t>Fail2ban/Patator (développement)</t>
   </si>
   <si>
@@ -179,13 +176,7 @@
     <t>Versionnement en binôme (développement)</t>
   </si>
   <si>
-    <t>Déploiement serveur mutualisé (développement)</t>
-  </si>
-  <si>
     <t>TP Startup (Mise a dispo serv info)</t>
-  </si>
-  <si>
-    <t>Réaliser une base de donnée relier à une application (développement, base de données)</t>
   </si>
   <si>
     <t>Veille (développement)</t>
@@ -201,6 +192,15 @@
   </si>
   <si>
     <t>Préparation d'ordinateurs</t>
+  </si>
+  <si>
+    <t>AP4 (développement)</t>
+  </si>
+  <si>
+    <t>AP2 Personnel (développement, base de données)</t>
+  </si>
+  <si>
+    <t>AP1 Parking (développement, base de données)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1018,18 +1018,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,19 +1039,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,24 +1093,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1407,8 +1396,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1420,56 +1409,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="59"/>
-    </row>
-    <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="H1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="82"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1481,22 +1470,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1518,9 +1507,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="71"/>
+    <row r="7" spans="1:13" ht="324.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1541,20 +1530,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="30">
         <v>44896</v>
@@ -1568,7 +1557,7 @@
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="30">
         <v>45047</v>
@@ -1610,7 +1599,7 @@
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="30">
         <v>44835</v>
@@ -1638,77 +1627,77 @@
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B15" s="30">
-        <v>45261</v>
+        <v>45231</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16" s="30">
         <v>45170</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B17" s="30">
-        <v>45231</v>
+        <v>45261</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="30">
+        <v>45170</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="30">
         <v>45200</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="30">
-        <v>45231</v>
-      </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="30">
         <v>45261</v>
@@ -1720,7 +1709,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
@@ -1734,45 +1723,36 @@
       <c r="G21" s="7"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="33">
         <v>45292</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+    </row>
+    <row r="25" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="40">
         <v>45047</v>
@@ -1782,11 +1762,11 @@
       <c r="E25" s="41"/>
       <c r="F25" s="43"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="31">
         <v>45047</v>
@@ -1798,7 +1778,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
@@ -1812,9 +1792,9 @@
       <c r="G27" s="15"/>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="33">
         <v>45047</v>
@@ -1826,10 +1806,10 @@
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="28"/>
@@ -1838,9 +1818,9 @@
       <c r="G29" s="28"/>
       <c r="H29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" s="40">
         <v>45292</v>
@@ -1850,47 +1830,47 @@
       <c r="E30" s="41"/>
       <c r="F30" s="43"/>
       <c r="G30" s="44"/>
-      <c r="H30" s="55"/>
-    </row>
-    <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="31">
         <v>45292</v>
       </c>
       <c r="C31" s="26"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
-        <v>43</v>
+    </row>
+    <row r="32" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>40</v>
       </c>
-      <c r="B32" s="82">
+      <c r="B32" s="55">
         <v>45292</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
-    </row>
-    <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="53"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1900,7 +1880,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1910,7 +1890,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1920,7 +1900,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1930,7 +1910,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1940,7 +1920,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1950,7 +1930,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1960,7 +1940,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1970,7 +1950,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1980,7 +1960,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1990,7 +1970,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2000,7 +1980,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2010,7 +1990,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2020,7 +2000,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -11430,7 +11410,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -11440,7 +11420,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -11450,7 +11430,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -11545,17 +11525,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11563,7 +11543,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5740A-4773-4F93-8F3D-DF290FEB8952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6EA8A-31F6-4282-B694-C9C30D515806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -108,10 +108,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation en cours de formation
-</t>
-  </si>
-  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -143,9 +139,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gestion de parc informatique </t>
-  </si>
-  <si>
     <t>Centre de formation : UFA Charles De Foucauld</t>
   </si>
   <si>
@@ -162,9 +155,6 @@
   </si>
   <si>
     <t>Fail2ban/Patator (développement)</t>
-  </si>
-  <si>
-    <t>Calculatrice (développement)</t>
   </si>
   <si>
     <t>TP Matériel (réseau)</t>
@@ -188,26 +178,38 @@
     <t>Assistance de proximité auprès d’utilisateurs de niveau 1 / Installation de matériel sur site</t>
   </si>
   <si>
-    <t>Gestion de parc informatique / Tickets</t>
-  </si>
-  <si>
     <t>Préparation d'ordinateurs</t>
   </si>
   <si>
-    <t>AP4 (développement)</t>
+    <t>AP4 : page web des ligues (développement)</t>
   </si>
   <si>
-    <t>AP2 Personnel (développement, base de données)</t>
+    <t>AP2 : Personnel (développement, base de données)</t>
   </si>
   <si>
-    <t>AP1 Parking (développement, base de données)</t>
+    <t>AP1 : Parking (développement, base de données)</t>
+  </si>
+  <si>
+    <t>Calculatrice en C (développement)</t>
+  </si>
+  <si>
+    <t>Gestion de parc informatique (GLPI)</t>
+  </si>
+  <si>
+    <t>Gestion de parc informatique / Tickets (GLPI)</t>
+  </si>
+  <si>
+    <t>Réalisations en cours de formation de première année</t>
+  </si>
+  <si>
+    <t>Réalisations en cours de formation de deuxième année</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -317,13 +319,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -882,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,7 +1022,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1052,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,15 +1071,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1106,7 +1094,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1394,10 +1381,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1409,56 +1396,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="77"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>24</v>
+      <c r="A3" s="77" t="s">
+        <v>23</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="81"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>27</v>
+      <c r="A4" s="69" t="s">
+        <v>25</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1470,22 +1457,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="73" t="s">
-        <v>25</v>
+      <c r="A5" s="72" t="s">
+        <v>24</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1508,8 +1495,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1529,21 +1516,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>21</v>
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>45</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B9" s="30">
         <v>44896</v>
@@ -1557,7 +1544,7 @@
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="30">
         <v>45047</v>
@@ -1571,7 +1558,7 @@
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="30">
         <v>44896</v>
@@ -1585,7 +1572,7 @@
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="30">
         <v>44835</v>
@@ -1599,7 +1586,7 @@
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="30">
         <v>44835</v>
@@ -1611,9 +1598,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="30">
         <v>44866</v>
@@ -1625,260 +1612,263 @@
       <c r="G14" s="17"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>44</v>
+    <row r="15" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>46</v>
       </c>
-      <c r="B15" s="30">
-        <v>45231</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="30">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="83"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="30">
+        <v>45170</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45261</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30">
-        <v>45261</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="30">
+      <c r="B19" s="30">
         <v>45170</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>36</v>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B20" s="30">
         <v>45200</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="30">
-        <v>45261</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="19"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="30">
         <v>45261</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="30">
+        <v>45261</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="33">
+        <v>45292</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B26" s="40">
+        <v>45047</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="31">
+        <v>45047</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="30">
+        <v>45047</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="33">
+        <v>45047</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="40">
         <v>45292</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
-        <v>22</v>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>44</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="40">
-        <v>45047</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="31">
-        <v>45047</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="30">
-        <v>45047</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="33">
-        <v>45047</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="40">
+      <c r="B32" s="31">
         <v>45292</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>41</v>
+      <c r="C32" s="26"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>37</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B33" s="55">
         <v>45292</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="55">
-        <v>45292</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+    </row>
     <row r="34" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1888,7 +1878,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -11521,21 +11511,32 @@
       <c r="H999" s="1"/>
     </row>
     <row r="1000" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
     </row>
+    <row r="1001" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1001" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://abdullah-asci.github.io/Portfolio/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
+++ b/Ressources_Réa_Pro/E4-Tableau_Synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vincent ch\Documents\GitHub\Portfolio\Ressources_Réa_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6EA8A-31F6-4282-B694-C9C30D515806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159CD6DC-C5BC-4FDF-A6A8-FCA40FA8EEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,7 @@
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>Réalisations en cours de formation de deuxième année</t>
+  </si>
+  <si>
+    <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° candidat : 01804453227  </t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1383,8 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1405,13 +1405,13 @@
       <c r="E1" s="76"/>
       <c r="F1" s="76"/>
       <c r="G1" s="75" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -1423,14 +1423,14 @@
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
       <c r="F3" s="80" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="81"/>
@@ -1440,25 +1440,25 @@
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -1470,55 +1470,55 @@
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="68"/>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="30">
         <v>44896</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="30">
         <v>45047</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="30">
         <v>44896</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="30">
         <v>44835</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="30">
         <v>44835</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="30">
         <v>44866</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="30">
         <v>45231</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="17" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="30">
         <v>45170</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="30">
         <v>45261</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="30">
         <v>45170</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="30">
         <v>45200</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="30">
         <v>45261</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="30">
         <v>45261</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="23" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="33">
         <v>45292</v>
@@ -1739,7 +1739,7 @@
     <row r="24" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="26" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="40">
         <v>45047</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="27" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="31">
         <v>45047</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="28" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="30">
         <v>45047</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="29" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="33">
         <v>45047</v>
@@ -1809,7 +1809,7 @@
       <c r="A30" s="61"/>
       <c r="B30" s="45"/>
       <c r="C30" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="31" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="40">
         <v>45292</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="32" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="31">
         <v>45292</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="33" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="55">
         <v>45292</v>
